--- a/medicine/Mort/Cimetière_Saint-Amâtre_d'Auxerre/Cimetière_Saint-Amâtre_d'Auxerre.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Amâtre_d'Auxerre/Cimetière_Saint-Amâtre_d'Auxerre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Am%C3%A2tre_d%27Auxerre</t>
+          <t>Cimetière_Saint-Amâtre_d'Auxerre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Dunant, ou cimetière Saint-Amâtre, est un cimetière communal situé à Auxerre dans le département de l'Yonne. Il a été ouvert en 1793[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Dunant, ou cimetière Saint-Amâtre, est un cimetière communal situé à Auxerre dans le département de l'Yonne. Il a été ouvert en 1793.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Am%C3%A2tre_d%27Auxerre</t>
+          <t>Cimetière_Saint-Amâtre_d'Auxerre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière est l'un des plus anciens cimetières de ville de France puisqu'il a été ouvert en 1793 à l'emplacement du clos des Capucins, acheté comme bien national par le citoyen Legueux-Cochois. De 1826 à 1828, ce « cimetière des Capucins » est agrandi par l'achat de parcelles de vigne. En 1837, la ville d'Auxerre acquiert le reste de la propriété Legueux à l'ouest du cimetière, ainsi qu'un verger à l'est, formant ainsi le « cimetière Dunant », du nom de sa légataire Thérèse Dunant. L'église du couvent des Capucins, desservant le cimetière Saint-Amâtre, est détruite en 1841-1842[1]. Ce cimetière possède encore un riche patrimoine de tombes anciennes ou de personnalités et de grandes familles locales. Deux personnalités totalement opposées de sensibilité y sont enterrées : l'anticlérical Paul Bert et la poétesse catholique Marie Noël[2],[3]...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière est l'un des plus anciens cimetières de ville de France puisqu'il a été ouvert en 1793 à l'emplacement du clos des Capucins, acheté comme bien national par le citoyen Legueux-Cochois. De 1826 à 1828, ce « cimetière des Capucins » est agrandi par l'achat de parcelles de vigne. En 1837, la ville d'Auxerre acquiert le reste de la propriété Legueux à l'ouest du cimetière, ainsi qu'un verger à l'est, formant ainsi le « cimetière Dunant », du nom de sa légataire Thérèse Dunant. L'église du couvent des Capucins, desservant le cimetière Saint-Amâtre, est détruite en 1841-1842. Ce cimetière possède encore un riche patrimoine de tombes anciennes ou de personnalités et de grandes familles locales. Deux personnalités totalement opposées de sensibilité y sont enterrées : l'anticlérical Paul Bert et la poétesse catholique Marie Noël,...
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Am%C3%A2tre_d%27Auxerre</t>
+          <t>Cimetière_Saint-Amâtre_d'Auxerre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paul Bert (1833-1886), médecin et homme politique anticlérical, adepte de la colonisation. Un remarquable gisant en bronze à l'antique est sculpté par Bartholdi sur sa tombe.
 Le baron François-Louis Boudin de Roville (1772-1838), général d’Empire,
